--- a/Results3.xlsx
+++ b/Results3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raouf\Desktop\Clan_Chest\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56B662C-D4D5-426E-809D-50BA7BD55FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E0EDA5-50B6-418C-9FDE-2B9C627A0F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{F99CF3AC-B132-4419-963E-720F575C39BA}"/>
   </bookViews>
@@ -25,7 +25,230 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>total Chests</t>
+  </si>
+  <si>
+    <t>Rise of the Ancients Event</t>
+  </si>
+  <si>
+    <t>Epic Ancient Squad</t>
+  </si>
+  <si>
+    <t>Ancient's Treasure</t>
+  </si>
+  <si>
+    <t>Level 5 Crypt</t>
+  </si>
+  <si>
+    <t>Level 10 Crypt</t>
+  </si>
+  <si>
+    <t>Level 15 Crypt</t>
+  </si>
+  <si>
+    <t>Level 20 Crypt</t>
+  </si>
+  <si>
+    <t>Level 25 Crypt</t>
+  </si>
+  <si>
+    <t>Level 10 Rare Crypt</t>
+  </si>
+  <si>
+    <t>Level 15 Rare Crypt</t>
+  </si>
+  <si>
+    <t>Level 20 Rare Crypt</t>
+  </si>
+  <si>
+    <t>Level 25 Rare Crypt</t>
+  </si>
+  <si>
+    <t>Level 30 Rare Crypt</t>
+  </si>
+  <si>
+    <t>Level 15 Epic Crypt</t>
+  </si>
+  <si>
+    <t>Level 20 Epic Crypt</t>
+  </si>
+  <si>
+    <t>Level 25 Epic Crypt</t>
+  </si>
+  <si>
+    <t>Level 30 Epic Crypt</t>
+  </si>
+  <si>
+    <t>Level 35 Epic Crypt</t>
+  </si>
+  <si>
+    <t>Level 10 Citadel</t>
+  </si>
+  <si>
+    <t>Level 15 Citadel</t>
+  </si>
+  <si>
+    <t>Level 20 Citadel</t>
+  </si>
+  <si>
+    <t>Level 25 Citadel</t>
+  </si>
+  <si>
+    <t>Level 30 Citadel</t>
+  </si>
+  <si>
+    <t>Level 20 Cursed Citadel</t>
+  </si>
+  <si>
+    <t>Level 25 Cursed Citadel</t>
+  </si>
+  <si>
+    <t>Epic Fenrir Squad</t>
+  </si>
+  <si>
+    <t>Clash for the Throne</t>
+  </si>
+  <si>
+    <t>Mercenary Exchange</t>
+  </si>
+  <si>
+    <t>Tartaros Crypt Level 10</t>
+  </si>
+  <si>
+    <t>Tartaros Crypt Level 15</t>
+  </si>
+  <si>
+    <t>Tartaros Crypt Level 20</t>
+  </si>
+  <si>
+    <t>Tartaros Crypt Level 25</t>
+  </si>
+  <si>
+    <t>Tartaros Crypt Level 30</t>
+  </si>
+  <si>
+    <t>Tartaros Crypt Level 35</t>
+  </si>
+  <si>
+    <t>Epic Inferno Squad</t>
+  </si>
+  <si>
+    <t>Union of Triumph Personal Reward</t>
+  </si>
+  <si>
+    <t>jormungandr Shop</t>
+  </si>
+  <si>
+    <t>Hermes Store</t>
+  </si>
+  <si>
+    <t>Level 16 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 17 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 18 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 19 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 20 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 21 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 22 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 23 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 24 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 25 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 26 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 27 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 28 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 29 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 30 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 31 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 32 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 33 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 34 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 35 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 36 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 37 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 38 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 39 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 40 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 41 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 42 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 43 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 44 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 45 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Arena</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Spoils of Dread Event</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A025B4-13AC-4A53-971E-4FEF486B55C6}">
-  <dimension ref="A1:BV101"/>
+  <dimension ref="A1:BW101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,83 +671,234 @@
     <col min="87" max="87" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="1"/>
-      <c r="BU1" s="1"/>
-      <c r="BV1" s="1"/>
-    </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -600,7 +974,7 @@
       <c r="BU2" s="1"/>
       <c r="BV2" s="1"/>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -676,7 +1050,7 @@
       <c r="BU3" s="1"/>
       <c r="BV3" s="1"/>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -752,7 +1126,7 @@
       <c r="BU4" s="1"/>
       <c r="BV4" s="1"/>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -828,7 +1202,7 @@
       <c r="BU5" s="1"/>
       <c r="BV5" s="1"/>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -904,7 +1278,7 @@
       <c r="BU6" s="1"/>
       <c r="BV6" s="1"/>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -980,7 +1354,7 @@
       <c r="BU7" s="1"/>
       <c r="BV7" s="1"/>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1056,7 +1430,7 @@
       <c r="BU8" s="1"/>
       <c r="BV8" s="1"/>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1132,7 +1506,7 @@
       <c r="BU9" s="1"/>
       <c r="BV9" s="1"/>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1208,7 +1582,7 @@
       <c r="BU10" s="1"/>
       <c r="BV10" s="1"/>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1284,7 +1658,7 @@
       <c r="BU11" s="1"/>
       <c r="BV11" s="1"/>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1360,7 +1734,7 @@
       <c r="BU12" s="1"/>
       <c r="BV12" s="1"/>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1436,7 +1810,7 @@
       <c r="BU13" s="1"/>
       <c r="BV13" s="1"/>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1512,7 +1886,7 @@
       <c r="BU14" s="1"/>
       <c r="BV14" s="1"/>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1588,7 +1962,7 @@
       <c r="BU15" s="1"/>
       <c r="BV15" s="1"/>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/Results3.xlsx
+++ b/Results3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raouf\Desktop\Clan_Chest\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4FDC42-A27B-4FF4-A1A5-8FD92E936D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E514A81-EB43-429D-AC1E-3E08E3083DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F99CF3AC-B132-4419-963E-720F575C39BA}"/>
+    <workbookView xWindow="-25320" yWindow="-2490" windowWidth="25440" windowHeight="15270" xr2:uid="{F99CF3AC-B132-4419-963E-720F575C39BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A025B4-13AC-4A53-971E-4FEF486B55C6}">
   <dimension ref="A1:BW101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:BW101"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3252,7 +3252,7 @@
         <v>111</v>
       </c>
       <c r="D11" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
